--- a/Copy of burn_down_charts.xlsx
+++ b/Copy of burn_down_charts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9d8d9fb12468240/IFB299/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n8865426\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36197C74-36A5-4635-83F5-23808EBA7AF2}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -144,7 +143,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -208,6 +207,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -629,6 +629,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -754,6 +755,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -828,6 +830,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -945,6 +948,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1217,6 +1221,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1342,6 +1347,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1416,6 +1422,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2943,7 +2950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
